--- a/final_offer.xlsx
+++ b/final_offer.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,21 +405,21 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>643</v>
+        <v>886</v>
       </c>
       <c r="B2">
-        <v>4.290136422221211</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4.519551040805647</v>
       </c>
       <c r="D2">
-        <v>14.95443683593292</v>
+        <v>13.52039900303272</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>1041</v>
+        <v>1373</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -428,12 +428,12 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>14.93394010266239</v>
+        <v>12.46036269993587</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>775</v>
+        <v>1455</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -442,12 +442,12 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>14.10832135718405</v>
+        <v>11.39728958830168</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>678</v>
+        <v>1491</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -456,54 +456,54 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>14.10832135718405</v>
+        <v>11.32498205761578</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>886</v>
+        <v>1530</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.519551040805647</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>13.52039900303272</v>
+        <v>11.2599864489833</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>83</v>
+        <v>785</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.150000388103571</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>12.92570549861437</v>
+        <v>11.12049064688272</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>1000</v>
+        <v>217</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>3.958073133457978</v>
       </c>
       <c r="D8">
-        <v>12.74932409384171</v>
+        <v>11.10511973700603</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>1373</v>
+        <v>342</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -512,26 +512,26 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>12.46036269993587</v>
+        <v>11.06294903517576</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>1151</v>
+        <v>1569</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2.980432553116095</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>12.22037402819308</v>
+        <v>11.05610965176208</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>455</v>
+        <v>1493</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -540,12 +540,12 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.10754152018545</v>
+        <v>11.03554379036948</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>327</v>
+        <v>1341</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -554,12 +554,12 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.90224076289468</v>
+        <v>10.92836923098197</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>1538</v>
+        <v>1443</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -568,40 +568,40 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.90065154150608</v>
+        <v>10.89584265682742</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>873</v>
+        <v>1597</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.539850093414399</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>11.81850135301678</v>
+        <v>10.88435578075787</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>1175</v>
+        <v>996</v>
       </c>
       <c r="B15">
-        <v>3.434661644431381</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.77402245593751</v>
+        <v>10.87988288720972</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>1584</v>
+        <v>394</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -610,40 +610,40 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.59792949816738</v>
+        <v>10.83366735365128</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>1549</v>
+        <v>697</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.656232625653354</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>11.50376818203848</v>
+        <v>10.80081316645587</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>1329</v>
+        <v>1458</v>
       </c>
       <c r="B18">
-        <v>4.144450595875407</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.45886329518979</v>
+        <v>10.79020948965349</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>33</v>
+        <v>756</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -652,12 +652,12 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.45740817425048</v>
+        <v>10.78658390703249</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>1590</v>
+        <v>1071</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -666,12 +666,12 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.43317409538736</v>
+        <v>10.78532654824282</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>914</v>
+        <v>1119</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -680,26 +680,26 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.41837973709361</v>
+        <v>10.78259979282121</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>372</v>
+        <v>1082</v>
       </c>
       <c r="B22">
-        <v>3.432138698430996</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.41774186509995</v>
+        <v>10.75267555334879</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>1455</v>
+        <v>496</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -708,12 +708,12 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.39728958830168</v>
+        <v>10.75153306352156</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>1491</v>
+        <v>311</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -722,12 +722,12 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.32498205761578</v>
+        <v>10.74110662696034</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>1342</v>
+        <v>1063</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -736,12 +736,12 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>11.28241643495558</v>
+        <v>10.735247462141</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>1530</v>
+        <v>1343</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -750,26 +750,26 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>11.2599864489833</v>
+        <v>10.72927313055043</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>143</v>
+        <v>485</v>
       </c>
       <c r="B27">
-        <v>3.665827625329725</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>11.2153165740742</v>
+        <v>10.72583313455443</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>215</v>
+        <v>562</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -778,12 +778,12 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>11.18929219779131</v>
+        <v>10.72519554840063</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>1246</v>
+        <v>706</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -792,26 +792,26 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>11.17516507610295</v>
+        <v>10.71742306290625</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>408</v>
+        <v>878</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>3.045355664018523</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>11.12414194119819</v>
+        <v>10.70743814532747</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>785</v>
+        <v>4</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -820,12 +820,12 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>11.12049064688272</v>
+        <v>10.7045069653958</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>1347</v>
+        <v>1031</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -834,12 +834,12 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>11.11698324996622</v>
+        <v>10.70385560997255</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>217</v>
+        <v>710</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -848,12 +848,12 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>11.10511973700603</v>
+        <v>10.70085337112996</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>1293</v>
+        <v>668</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -862,12 +862,12 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>11.09707546488474</v>
+        <v>10.69749749949552</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>342</v>
+        <v>731</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -876,12 +876,12 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>11.06294903517576</v>
+        <v>10.69692299367422</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>1569</v>
+        <v>498</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -890,12 +890,12 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>11.05610965176208</v>
+        <v>10.69368550093271</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>1025</v>
+        <v>1240</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -904,12 +904,12 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>11.04471201241837</v>
+        <v>10.69084491069779</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>1493</v>
+        <v>1360</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -918,26 +918,26 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>11.03554379036948</v>
+        <v>10.68989296824389</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>938</v>
+        <v>1448</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>5.000517317159092</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>11.01926507977533</v>
+        <v>10.68911499438977</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>846</v>
+        <v>61</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -946,12 +946,12 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>11.01660092691832</v>
+        <v>10.67695489838343</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>123</v>
+        <v>1096</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -960,382 +960,382 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>11.01541286472616</v>
+        <v>10.67642607872835</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>1413</v>
+        <v>224</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>5.087236470286568</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>10.67541009776231</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>1076</v>
+        <v>852</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>5.083896280489533</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>10.67370021077731</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>601</v>
+        <v>261</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>5.074415804175602</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>10.67368158638209</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>145</v>
+        <v>293</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>5.069480557373945</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>10.67260388650413</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>587</v>
+        <v>41</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>5.03357347844141</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>10.67180424454858</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>389</v>
+        <v>1123</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>4.954117228201584</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>10.67087638953944</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>924</v>
+        <v>595</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>4.935058820316113</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>10.6696345628166</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>420</v>
+        <v>828</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>4.921248517272653</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>10.66877857941756</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>851</v>
+        <v>1586</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>4.878484776152434</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>10.66730219776743</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>634</v>
+        <v>350</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>4.873120132909859</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>10.66668220756542</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>1487</v>
+        <v>1321</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>4.864772847414068</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>10.6661888252064</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>382</v>
+        <v>231</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>4.833080678814946</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>10.66581167782925</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>4.821776497937236</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>10.66477861447747</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>340</v>
+        <v>454</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>4.818942910292415</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>10.66469876842163</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>1522</v>
+        <v>331</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>4.802243132055693</v>
+        <v>4.440961085680205</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>10.66427777676849</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>963</v>
+        <v>474</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>4.801340671918497</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>10.66373540817444</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>1170</v>
+        <v>975</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>4.741387450662478</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>10.66102013913009</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>4.662943831600023</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>10.65944620532457</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>1178</v>
+        <v>1474</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>4.643958060675185</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>10.65598336534368</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>4.617709053095462</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>10.63250446400662</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>734</v>
+        <v>153</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>4.600967730981066</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>10.62717640709061</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>385</v>
+        <v>524</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>4.600302332106295</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>10.62367191793152</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>694</v>
+        <v>1543</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>4.560916712612487</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>10.54038388200178</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>1367</v>
+        <v>978</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>4.550652241516529</v>
+        <v>4.381465756096736</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>10.50695258336057</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>592</v>
+        <v>1192</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>4.496897410823667</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>10.42102871664716</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>84</v>
+        <v>1385</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>4.494481530172193</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>10.41227865787534</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>1199</v>
+        <v>1076</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>4.494441609411723</v>
+        <v>5.083896280489533</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -1343,13 +1343,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>541</v>
+        <v>145</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>4.494384726459262</v>
+        <v>5.069480557373945</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1357,13 +1357,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>613</v>
+        <v>587</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>4.49412211598709</v>
+        <v>5.03357347844141</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -1371,13 +1371,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>741</v>
+        <v>389</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>2.579869071950017</v>
       </c>
       <c r="C71">
-        <v>4.494058758611696</v>
+        <v>4.954117228201584</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -1385,13 +1385,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>103</v>
+        <v>851</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72">
-        <v>4.493911023954317</v>
+        <v>4.878484776152434</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -1399,13 +1399,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>1500</v>
+        <v>1487</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>4.493838489860189</v>
+        <v>4.864772847414068</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -1413,13 +1413,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>1052</v>
+        <v>382</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>4.493557607198667</v>
+        <v>4.833080678814946</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -1427,13 +1427,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>644</v>
+        <v>535</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>4.493506793236405</v>
+        <v>4.821776497937236</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -1441,13 +1441,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>966</v>
+        <v>340</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>4.49197160211444</v>
+        <v>4.818942910292415</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -1455,13 +1455,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>1496</v>
+        <v>104</v>
       </c>
       <c r="B77">
-        <v>3.592315486609291</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>4.662943831600023</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -1469,13 +1469,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>1408</v>
+        <v>592</v>
       </c>
       <c r="B78">
-        <v>3.56881728409645</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>4.496897410823667</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -1483,13 +1483,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>3.461274550292378</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>4.494481530172193</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -1497,13 +1497,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>34</v>
+        <v>541</v>
       </c>
       <c r="B80">
-        <v>3.405843493285524</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>4.494384726459262</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -1511,13 +1511,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>1571</v>
+        <v>701</v>
       </c>
       <c r="B81">
-        <v>3.400247611908505</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>4.486715804352084</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -1525,13 +1525,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>1282</v>
+        <v>1331</v>
       </c>
       <c r="B82">
-        <v>3.397662801618909</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>4.486113122823072</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -1539,13 +1539,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>614</v>
+        <v>870</v>
       </c>
       <c r="B83">
-        <v>3.354440020769658</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>4.486071800888204</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -1553,13 +1553,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>766</v>
+        <v>1380</v>
       </c>
       <c r="B84">
-        <v>3.286586172949567</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>4.47472428033336</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -1567,13 +1567,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>1415</v>
+        <v>1262</v>
       </c>
       <c r="B85">
-        <v>3.270212500711036</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>4.459081680184702</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -1581,13 +1581,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>1008</v>
+        <v>1241</v>
       </c>
       <c r="B86">
-        <v>3.26835245789648</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>4.451809283133094</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -1595,13 +1595,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>1093</v>
+        <v>1227</v>
       </c>
       <c r="B87">
-        <v>3.266397185914605</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>4.451450680951634</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -1609,13 +1609,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>890</v>
+        <v>1354</v>
       </c>
       <c r="B88">
-        <v>3.248994701753943</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>4.451009987561082</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -1623,13 +1623,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>872</v>
+        <v>1280</v>
       </c>
       <c r="B89">
-        <v>3.246159514023419</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>4.450444766081271</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -1637,13 +1637,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>1473</v>
+        <v>180</v>
       </c>
       <c r="B90">
-        <v>3.245013663783483</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>4.449883453255512</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -1651,13 +1651,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>1042</v>
+        <v>1222</v>
       </c>
       <c r="B91">
-        <v>3.242227944100267</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>4.437888488830675</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -1665,13 +1665,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>294</v>
+        <v>931</v>
       </c>
       <c r="B92">
-        <v>3.235901124313445</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>4.433599402511964</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -1679,13 +1679,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>673</v>
+        <v>1129</v>
       </c>
       <c r="B93">
-        <v>3.234185283434178</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>4.42488880868709</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -1693,13 +1693,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>1040</v>
+        <v>1419</v>
       </c>
       <c r="B94">
-        <v>3.221824451735245</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>4.424585361180632</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -1707,13 +1707,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>1264</v>
+        <v>1588</v>
       </c>
       <c r="B95">
-        <v>3.212673096998505</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>4.422880684587318</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -1721,13 +1721,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>477</v>
+        <v>1047</v>
       </c>
       <c r="B96">
-        <v>3.204380569369378</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>4.415307034159912</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -1735,13 +1735,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>1111</v>
+        <v>516</v>
       </c>
       <c r="B97">
-        <v>3.200879911464253</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>4.376102365890469</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -1749,13 +1749,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>1033</v>
+        <v>19</v>
       </c>
       <c r="B98">
-        <v>3.190299493961979</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>4.354995566329106</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -1763,13 +1763,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>1158</v>
+        <v>411</v>
       </c>
       <c r="B99">
-        <v>3.190149925013626</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>4.308555897117612</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -1777,13 +1777,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>1469</v>
+        <v>1365</v>
       </c>
       <c r="B100">
-        <v>3.184749227936957</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>4.271479199903851</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -1791,13 +1791,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="B101">
-        <v>3.17998735880921</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>4.230901877110963</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -1805,13 +1805,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>27</v>
+        <v>727</v>
       </c>
       <c r="B102">
-        <v>3.177270209711531</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>4.189189243852901</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -1819,13 +1819,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>993</v>
+        <v>633</v>
       </c>
       <c r="B103">
-        <v>3.173099880969318</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>4.000732641605872</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -1833,13 +1833,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>1277</v>
+        <v>197</v>
       </c>
       <c r="B104">
-        <v>3.169508264606378</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>3.915590222202741</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -1847,13 +1847,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>1220</v>
+        <v>352</v>
       </c>
       <c r="B105">
-        <v>3.15873591051327</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>3.905889925873699</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -1861,13 +1861,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>86</v>
+        <v>1410</v>
       </c>
       <c r="B106">
-        <v>3.154788513984895</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>3.885337029718573</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -1875,10 +1875,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>604</v>
+        <v>766</v>
       </c>
       <c r="B107">
-        <v>3.146827879594368</v>
+        <v>3.286586172949567</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -1889,10 +1889,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>1055</v>
+        <v>1008</v>
       </c>
       <c r="B108">
-        <v>3.142854354021333</v>
+        <v>3.26835245789648</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -1903,10 +1903,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>510</v>
+        <v>1093</v>
       </c>
       <c r="B109">
-        <v>3.131818438251116</v>
+        <v>3.266397185914605</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -1917,10 +1917,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>732</v>
+        <v>1007</v>
       </c>
       <c r="B110">
-        <v>3.130649990213872</v>
+        <v>3.113846709731122</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -1931,15 +1931,113 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>1135</v>
+        <v>1440</v>
       </c>
       <c r="B111">
-        <v>3.130325634781856</v>
+        <v>3.051301154367046</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>1229</v>
+      </c>
+      <c r="B112">
+        <v>3.050666412717226</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>64</v>
+      </c>
+      <c r="B113">
+        <v>3.046696019157205</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>1480</v>
+      </c>
+      <c r="B114">
+        <v>3.043509416825029</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>154</v>
+      </c>
+      <c r="B115">
+        <v>3.043337323986364</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>1435</v>
+      </c>
+      <c r="B116">
+        <v>3.040369984955452</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>1073</v>
+      </c>
+      <c r="B117">
+        <v>2.993176699425759</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>1226</v>
+      </c>
+      <c r="B118">
+        <v>2.798989182889781</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
         <v>0</v>
       </c>
     </row>

--- a/final_offer.xlsx
+++ b/final_offer.xlsx
@@ -14,18 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Client</t>
+  </si>
+  <si>
+    <t>probability_x</t>
   </si>
   <si>
     <t>mf_revenue_prediction</t>
   </si>
   <si>
+    <t>probability_y</t>
+  </si>
+  <si>
     <t>cc_revenue_prediction</t>
   </si>
   <si>
+    <t>probability</t>
+  </si>
+  <si>
     <t>cl_revenue_prediction</t>
+  </si>
+  <si>
+    <t>max_probability</t>
   </si>
 </sst>
 </file>
@@ -383,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,24 +414,48 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
-        <v>886</v>
+        <v>529</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="C2">
-        <v>4.519551040805647</v>
+        <v>2.929343147711021</v>
       </c>
       <c r="D2">
-        <v>13.52039900303272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.93</v>
+      </c>
+      <c r="E2">
+        <v>4.482575798519639</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
-        <v>1373</v>
+        <v>478</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -428,40 +464,76 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>12.46036269993587</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.93</v>
+      </c>
+      <c r="E3">
+        <v>4.400067571913662</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
-        <v>1455</v>
+        <v>1564</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.036735492343306</v>
       </c>
       <c r="D4">
-        <v>11.39728958830168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.83</v>
+      </c>
+      <c r="G4">
+        <v>10.66764159502311</v>
+      </c>
+      <c r="H4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
-        <v>1491</v>
+        <v>1056</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3.032167743361035</v>
       </c>
       <c r="D5">
-        <v>11.32498205761578</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.92</v>
+      </c>
+      <c r="G5">
+        <v>10.67868500495504</v>
+      </c>
+      <c r="H5">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
-        <v>1530</v>
+        <v>938</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -470,12 +542,24 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>11.2599864489833</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.92</v>
+      </c>
+      <c r="E6">
+        <v>5.000517317159092</v>
+      </c>
+      <c r="F6">
+        <v>0.75</v>
+      </c>
+      <c r="G6">
+        <v>11.01926507977533</v>
+      </c>
+      <c r="H6">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
-        <v>785</v>
+        <v>83</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -484,26 +568,50 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>11.12049064688272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.92</v>
+      </c>
+      <c r="E7">
+        <v>5.150000388103571</v>
+      </c>
+      <c r="F7">
+        <v>0.61</v>
+      </c>
+      <c r="G7">
+        <v>12.92570549861437</v>
+      </c>
+      <c r="H7">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
-        <v>217</v>
+        <v>322</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.958073133457978</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>11.10511973700603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.92</v>
+      </c>
+      <c r="E8">
+        <v>4.094715326474522</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
-        <v>342</v>
+        <v>1170</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -512,40 +620,76 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>11.06294903517576</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.91</v>
+      </c>
+      <c r="E9">
+        <v>4.741387450662478</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
-        <v>1569</v>
+        <v>544</v>
       </c>
       <c r="B10">
-        <v>2.980432553116095</v>
+        <v>0.91</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2.78463382978741</v>
       </c>
       <c r="D10">
-        <v>11.05610965176208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.82</v>
+      </c>
+      <c r="G10">
+        <v>10.72970051316505</v>
+      </c>
+      <c r="H10">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
-        <v>1493</v>
+        <v>556</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>3.053878173691726</v>
       </c>
       <c r="D11">
-        <v>11.03554379036948</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
-        <v>1341</v>
+        <v>1362</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -554,12 +698,24 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.92836923098197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.91</v>
+      </c>
+      <c r="E12">
+        <v>4.148265459529533</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
-        <v>1443</v>
+        <v>1406</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -568,26 +724,50 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.89584265682742</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.91</v>
+      </c>
+      <c r="E13">
+        <v>3.822675525628645</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
-        <v>1597</v>
+        <v>1413</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2.280039886393618</v>
       </c>
       <c r="D14">
-        <v>10.88435578075787</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.91</v>
+      </c>
+      <c r="E14">
+        <v>5.087236470286568</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
-        <v>996</v>
+        <v>1431</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -596,26 +776,50 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.87988288720972</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.91</v>
+      </c>
+      <c r="G15">
+        <v>10.69712922861583</v>
+      </c>
+      <c r="H15">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
-        <v>394</v>
+        <v>1087</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2.975829316342276</v>
       </c>
       <c r="D16">
-        <v>10.83366735365128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.68</v>
+      </c>
+      <c r="E16">
+        <v>4.431843680004127</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
-        <v>697</v>
+        <v>963</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -624,26 +828,50 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.80081316645587</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.9</v>
+      </c>
+      <c r="E17">
+        <v>4.801340671918497</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
-        <v>1458</v>
+        <v>1408</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>3.56881728409645</v>
       </c>
       <c r="D18">
-        <v>10.79020948965349</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.9</v>
+      </c>
+      <c r="E18">
+        <v>4.186716153435418</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
-        <v>756</v>
+        <v>908</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -652,12 +880,24 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.78658390703249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.9</v>
+      </c>
+      <c r="E19">
+        <v>3.868912900950264</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
-        <v>1071</v>
+        <v>492</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -666,26 +906,50 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.78532654824282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.9</v>
+      </c>
+      <c r="E20">
+        <v>4.401782542829237</v>
+      </c>
+      <c r="F20">
+        <v>0.83</v>
+      </c>
+      <c r="G20">
+        <v>11.00600317139835</v>
+      </c>
+      <c r="H20">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
-        <v>1119</v>
+        <v>390</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>2.951081511036694</v>
       </c>
       <c r="D21">
-        <v>10.78259979282121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
-        <v>1082</v>
+        <v>1522</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -694,12 +958,24 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.75267555334879</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.9</v>
+      </c>
+      <c r="E22">
+        <v>4.802243132055693</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
-        <v>496</v>
+        <v>634</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -708,26 +984,50 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.75153306352156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.9</v>
+      </c>
+      <c r="E23">
+        <v>4.873120132909859</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
-        <v>311</v>
+        <v>1169</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>3.054713132257675</v>
       </c>
       <c r="D24">
-        <v>10.74110662696034</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.65</v>
+      </c>
+      <c r="E24">
+        <v>4.430551415374274</v>
+      </c>
+      <c r="F24">
+        <v>0.9</v>
+      </c>
+      <c r="G24">
+        <v>10.72832056285819</v>
+      </c>
+      <c r="H24">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
-        <v>1063</v>
+        <v>1231</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -736,54 +1036,102 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.735247462141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0.9</v>
+      </c>
+      <c r="G25">
+        <v>10.69266151506172</v>
+      </c>
+      <c r="H25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
-        <v>1343</v>
+        <v>632</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>3.083991585157349</v>
       </c>
       <c r="D26">
-        <v>10.72927313055043</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0.89</v>
+      </c>
+      <c r="G26">
+        <v>10.69031931526248</v>
+      </c>
+      <c r="H26">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
-        <v>485</v>
+        <v>1175</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>3.434661644431381</v>
       </c>
       <c r="D27">
-        <v>10.72583313455443</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>0.88</v>
+      </c>
+      <c r="E27">
+        <v>4.413752047622205</v>
+      </c>
+      <c r="F27">
+        <v>0.89</v>
+      </c>
+      <c r="G27">
+        <v>11.77402245593751</v>
+      </c>
+      <c r="H27">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
-        <v>562</v>
+        <v>102</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>3.086121931646114</v>
       </c>
       <c r="D28">
-        <v>10.72519554840063</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.89</v>
+      </c>
+      <c r="G28">
+        <v>10.68365019635087</v>
+      </c>
+      <c r="H28">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
-        <v>706</v>
+        <v>601</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -792,26 +1140,50 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>10.71742306290625</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.89</v>
+      </c>
+      <c r="E29">
+        <v>5.074415804175602</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
-        <v>878</v>
+        <v>694</v>
       </c>
       <c r="B30">
-        <v>3.045355664018523</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>10.70743814532747</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.89</v>
+      </c>
+      <c r="E30">
+        <v>4.560916712612487</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -820,26 +1192,50 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>10.7045069653958</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.89</v>
+      </c>
+      <c r="E31">
+        <v>4.271479762942134</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
-        <v>1031</v>
+        <v>1571</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>3.400247611908505</v>
       </c>
       <c r="D32">
-        <v>10.70385560997255</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.89</v>
+      </c>
+      <c r="E32">
+        <v>4.461576114028791</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
-        <v>710</v>
+        <v>1303</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -848,26 +1244,50 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>10.70085337112996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.89</v>
+      </c>
+      <c r="E33">
+        <v>4.413126221043902</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
-        <v>668</v>
+        <v>187</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>3.066447159876747</v>
       </c>
       <c r="D34">
-        <v>10.69749749949552</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0.74</v>
+      </c>
+      <c r="G34">
+        <v>10.67934563018097</v>
+      </c>
+      <c r="H34">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
-        <v>731</v>
+        <v>449</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -876,12 +1296,24 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>10.69692299367422</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.88</v>
+      </c>
+      <c r="E35">
+        <v>4.226393290298111</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
-        <v>498</v>
+        <v>1368</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -890,12 +1322,24 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>10.69368550093271</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.88</v>
+      </c>
+      <c r="E36">
+        <v>3.995970494402882</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
-        <v>1240</v>
+        <v>1513</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -904,12 +1348,24 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>10.69084491069779</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0.88</v>
+      </c>
+      <c r="G37">
+        <v>10.23904186536682</v>
+      </c>
+      <c r="H37">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
-        <v>1360</v>
+        <v>1438</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -918,26 +1374,50 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>10.68989296824389</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0.88</v>
+      </c>
+      <c r="G38">
+        <v>10.68583910637581</v>
+      </c>
+      <c r="H38">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
-        <v>1448</v>
+        <v>372</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>3.432138698430996</v>
       </c>
       <c r="D39">
-        <v>10.68911499438977</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.88</v>
+      </c>
+      <c r="E39">
+        <v>4.303363541870866</v>
+      </c>
+      <c r="F39">
+        <v>0.63</v>
+      </c>
+      <c r="G39">
+        <v>11.41774186509995</v>
+      </c>
+      <c r="H39">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
-        <v>61</v>
+        <v>1344</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -946,12 +1426,24 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>10.67695489838343</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.88</v>
+      </c>
+      <c r="E40">
+        <v>4.376756459006363</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
-        <v>1096</v>
+        <v>230</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -960,12 +1452,24 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>10.67642607872835</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.88</v>
+      </c>
+      <c r="E41">
+        <v>3.139133648481431</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
-        <v>224</v>
+        <v>491</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -974,40 +1478,76 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>10.67541009776231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0.88</v>
+      </c>
+      <c r="G42">
+        <v>10.86425487498074</v>
+      </c>
+      <c r="H42">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
-        <v>852</v>
+        <v>1182</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>3.095036989799996</v>
       </c>
       <c r="D43">
-        <v>10.67370021077731</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
-        <v>261</v>
+        <v>792</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>3.041667414133129</v>
       </c>
       <c r="D44">
-        <v>10.67368158638209</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0.87</v>
+      </c>
+      <c r="G44">
+        <v>10.66091941130412</v>
+      </c>
+      <c r="H44">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
-        <v>293</v>
+        <v>630</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1016,54 +1556,102 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>10.67260388650413</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0.87</v>
+      </c>
+      <c r="G45">
+        <v>10.67633162231918</v>
+      </c>
+      <c r="H45">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
-        <v>41</v>
+        <v>1149</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>3.043595846948561</v>
       </c>
       <c r="D46">
-        <v>10.67180424454858</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.73</v>
+      </c>
+      <c r="E46">
+        <v>4.413904174270683</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
-        <v>1123</v>
+        <v>1484</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>3.047654414761654</v>
       </c>
       <c r="D47">
-        <v>10.67087638953944</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0.79</v>
+      </c>
+      <c r="G47">
+        <v>10.66181289097943</v>
+      </c>
+      <c r="H47">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
-        <v>595</v>
+        <v>1549</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>2.236344352791845</v>
       </c>
       <c r="D48">
-        <v>10.6696345628166</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.8</v>
+      </c>
+      <c r="E48">
+        <v>4.656232625653354</v>
+      </c>
+      <c r="F48">
+        <v>0.87</v>
+      </c>
+      <c r="G48">
+        <v>11.50376818203848</v>
+      </c>
+      <c r="H48">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
-        <v>828</v>
+        <v>682</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1072,12 +1660,24 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>10.66877857941756</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.86</v>
+      </c>
+      <c r="E49">
+        <v>4.322134820421644</v>
+      </c>
+      <c r="F49">
+        <v>0.87</v>
+      </c>
+      <c r="G49">
+        <v>10.53297914622811</v>
+      </c>
+      <c r="H49">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
-        <v>1586</v>
+        <v>420</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1086,26 +1686,50 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>10.66730219776743</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.87</v>
+      </c>
+      <c r="E50">
+        <v>4.921248517272653</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
-        <v>350</v>
+        <v>725</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>3.047450309987767</v>
       </c>
       <c r="D51">
-        <v>10.66668220756542</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
-        <v>1321</v>
+        <v>380</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1114,12 +1738,24 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>10.6661888252064</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0.86</v>
+      </c>
+      <c r="G52">
+        <v>10.76821036313317</v>
+      </c>
+      <c r="H52">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
-        <v>231</v>
+        <v>1265</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1128,12 +1764,24 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>10.66581167782925</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0.86</v>
+      </c>
+      <c r="G53">
+        <v>10.77038711002891</v>
+      </c>
+      <c r="H53">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
-        <v>528</v>
+        <v>225</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1142,12 +1790,24 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>10.66477861447747</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0.86</v>
+      </c>
+      <c r="G54">
+        <v>10.68051147105017</v>
+      </c>
+      <c r="H54">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
-        <v>454</v>
+        <v>558</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1156,26 +1816,50 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>10.66469876842163</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0.86</v>
+      </c>
+      <c r="G55">
+        <v>10.67076661582283</v>
+      </c>
+      <c r="H55">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
-        <v>331</v>
+        <v>1591</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>4.440961085680205</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>10.66427777676849</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0.86</v>
+      </c>
+      <c r="G56">
+        <v>10.66771225873262</v>
+      </c>
+      <c r="H56">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
-        <v>474</v>
+        <v>236</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1184,40 +1868,76 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>10.66373540817444</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.79</v>
+      </c>
+      <c r="E57">
+        <v>4.451517465171771</v>
+      </c>
+      <c r="F57">
+        <v>0.86</v>
+      </c>
+      <c r="G57">
+        <v>10.68444593828487</v>
+      </c>
+      <c r="H57">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
-        <v>975</v>
+        <v>416</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>3.111931797247416</v>
       </c>
       <c r="D58">
-        <v>10.66102013913009</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
-        <v>126</v>
+        <v>448</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>2.993609366957064</v>
       </c>
       <c r="D59">
-        <v>10.65944620532457</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.82</v>
+      </c>
+      <c r="E59">
+        <v>4.407582348341857</v>
+      </c>
+      <c r="F59">
+        <v>0.86</v>
+      </c>
+      <c r="G59">
+        <v>10.62324624512372</v>
+      </c>
+      <c r="H59">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
-        <v>1474</v>
+        <v>1178</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1226,12 +1946,24 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>10.65598336534368</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.86</v>
+      </c>
+      <c r="E60">
+        <v>4.643958060675185</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
-        <v>164</v>
+        <v>942</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1240,12 +1972,24 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>10.63250446400662</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.86</v>
+      </c>
+      <c r="E61">
+        <v>4.288941659216276</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
-        <v>153</v>
+        <v>1330</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1254,12 +1998,24 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>10.62717640709061</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.86</v>
+      </c>
+      <c r="E62">
+        <v>4.360991931590745</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
-        <v>524</v>
+        <v>782</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1268,12 +2024,24 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>10.62367191793152</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.86</v>
+      </c>
+      <c r="E63">
+        <v>2.282418891655496</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
-        <v>1543</v>
+        <v>45</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1282,26 +2050,50 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>10.54038388200178</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.86</v>
+      </c>
+      <c r="E64">
+        <v>4.617709053095462</v>
+      </c>
+      <c r="F64">
+        <v>0.61</v>
+      </c>
+      <c r="G64">
+        <v>10.47458718858607</v>
+      </c>
+      <c r="H64">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
-        <v>978</v>
+        <v>569</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>4.381465756096736</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>10.50695258336057</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.86</v>
+      </c>
+      <c r="E65">
+        <v>4.488768067978707</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
-        <v>1192</v>
+        <v>1561</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1310,12 +2102,24 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>10.42102871664716</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0.85</v>
+      </c>
+      <c r="G66">
+        <v>10.61588552789407</v>
+      </c>
+      <c r="H66">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
-        <v>1385</v>
+        <v>1151</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1324,721 +2128,903 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>10.41227865787534</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.85</v>
+      </c>
+      <c r="E67">
+        <v>4.280232671110695</v>
+      </c>
+      <c r="F67">
+        <v>0.76</v>
+      </c>
+      <c r="G67">
+        <v>12.22037402819308</v>
+      </c>
+      <c r="H67">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
-        <v>1076</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>5.083896280489533</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.85</v>
+      </c>
+      <c r="E68">
+        <v>4.40691823037222</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
-        <v>145</v>
+        <v>455</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>5.069480557373945</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.85</v>
+      </c>
+      <c r="E69">
+        <v>4.289840604618078</v>
+      </c>
+      <c r="F69">
+        <v>0.66</v>
+      </c>
+      <c r="G69">
+        <v>12.10754152018545</v>
+      </c>
+      <c r="H69">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
-        <v>587</v>
+        <v>385</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>5.03357347844141</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.85</v>
+      </c>
+      <c r="E70">
+        <v>4.600302332106295</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71">
-        <v>389</v>
+        <v>884</v>
       </c>
       <c r="B71">
-        <v>2.579869071950017</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>4.954117228201584</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0.85</v>
+      </c>
+      <c r="G71">
+        <v>10.73964566700222</v>
+      </c>
+      <c r="H71">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72">
-        <v>4.878484776152434</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0.85</v>
+      </c>
+      <c r="G72">
+        <v>10.66391878896036</v>
+      </c>
+      <c r="H72">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73">
-        <v>1487</v>
+        <v>499</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="C73">
-        <v>4.864772847414068</v>
+        <v>3.044910630753732</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74">
-        <v>382</v>
+        <v>500</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="C74">
-        <v>4.833080678814946</v>
+        <v>2.997485287529356</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0.85</v>
+      </c>
+      <c r="G74">
+        <v>10.47473297996038</v>
+      </c>
+      <c r="H74">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75">
-        <v>535</v>
+        <v>43</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="C75">
-        <v>4.821776497937236</v>
+        <v>3.461274550292378</v>
       </c>
       <c r="D75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.85</v>
+      </c>
+      <c r="E75">
+        <v>4.346972989863089</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
-        <v>340</v>
+        <v>519</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>4.818942910292415</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.68</v>
+      </c>
+      <c r="E76">
+        <v>4.454921159392445</v>
+      </c>
+      <c r="F76">
+        <v>0.85</v>
+      </c>
+      <c r="G76">
+        <v>10.67242174028188</v>
+      </c>
+      <c r="H76">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77">
-        <v>104</v>
+        <v>1293</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77">
-        <v>4.662943831600023</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.76</v>
+      </c>
+      <c r="E77">
+        <v>4.107349124212128</v>
+      </c>
+      <c r="F77">
+        <v>0.85</v>
+      </c>
+      <c r="G77">
+        <v>11.09707546488474</v>
+      </c>
+      <c r="H77">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
-        <v>592</v>
+        <v>720</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>4.496897410823667</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0.85</v>
+      </c>
+      <c r="G78">
+        <v>10.6655756042504</v>
+      </c>
+      <c r="H78">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79">
-        <v>84</v>
+        <v>642</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79">
-        <v>4.494481530172193</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0.85</v>
+      </c>
+      <c r="G79">
+        <v>10.53602705171868</v>
+      </c>
+      <c r="H79">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80">
-        <v>541</v>
+        <v>1342</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>4.494384726459262</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0.85</v>
+      </c>
+      <c r="G80">
+        <v>11.28241643495558</v>
+      </c>
+      <c r="H80">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81">
-        <v>701</v>
+        <v>384</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81">
-        <v>4.486715804352084</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.73</v>
+      </c>
+      <c r="E81">
+        <v>4.475826912835424</v>
+      </c>
+      <c r="F81">
+        <v>0.85</v>
+      </c>
+      <c r="G81">
+        <v>10.75384872713529</v>
+      </c>
+      <c r="H81">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82">
-        <v>1331</v>
+        <v>922</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>4.486113122823072</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0.85</v>
+      </c>
+      <c r="G82">
+        <v>10.73788174447769</v>
+      </c>
+      <c r="H82">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83">
-        <v>870</v>
+        <v>134</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>4.486071800888204</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0.84</v>
+      </c>
+      <c r="G83">
+        <v>10.88243315290041</v>
+      </c>
+      <c r="H83">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84">
-        <v>1380</v>
+        <v>906</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>4.47472428033336</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0.84</v>
+      </c>
+      <c r="G84">
+        <v>10.66876264229328</v>
+      </c>
+      <c r="H84">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85">
-        <v>1262</v>
+        <v>1298</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>4.459081680184702</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0.84</v>
+      </c>
+      <c r="G85">
+        <v>10.86193299559379</v>
+      </c>
+      <c r="H85">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86">
-        <v>1241</v>
+        <v>775</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="C86">
-        <v>4.451809283133094</v>
+        <v>2.271829605275991</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0.84</v>
+      </c>
+      <c r="G86">
+        <v>14.10832135718405</v>
+      </c>
+      <c r="H86">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87">
-        <v>1227</v>
+        <v>1025</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>4.451450680951634</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0.84</v>
+      </c>
+      <c r="G87">
+        <v>11.04471201241837</v>
+      </c>
+      <c r="H87">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88">
-        <v>1354</v>
+        <v>691</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>4.451009987561082</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0.84</v>
+      </c>
+      <c r="G88">
+        <v>10.66149907893323</v>
+      </c>
+      <c r="H88">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89">
-        <v>1280</v>
+        <v>36</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="C89">
-        <v>4.450444766081271</v>
+        <v>3.08583290008872</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90">
-        <v>180</v>
+        <v>334</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90">
-        <v>4.449883453255512</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.84</v>
+      </c>
+      <c r="E90">
+        <v>4.461777165635375</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91">
-        <v>1222</v>
+        <v>408</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>4.437888488830675</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.73</v>
+      </c>
+      <c r="E91">
+        <v>4.055982695429999</v>
+      </c>
+      <c r="F91">
+        <v>0.84</v>
+      </c>
+      <c r="G91">
+        <v>11.12414194119819</v>
+      </c>
+      <c r="H91">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
-        <v>931</v>
+        <v>21</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>4.433599402511964</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.84</v>
+      </c>
+      <c r="E92">
+        <v>3.707248551664772</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93">
-        <v>1129</v>
+        <v>219</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>4.42488880868709</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.84</v>
+      </c>
+      <c r="E93">
+        <v>4.186594853671509</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94">
-        <v>1419</v>
+        <v>705</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>4.424585361180632</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.84</v>
+      </c>
+      <c r="E94">
+        <v>4.414856033497919</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95">
-        <v>1588</v>
+        <v>252</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95">
-        <v>4.422880684587318</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.84</v>
+      </c>
+      <c r="E95">
+        <v>4.287337125798885</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96">
-        <v>1047</v>
+        <v>1030</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>4.415307034159912</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.84</v>
+      </c>
+      <c r="E96">
+        <v>4.373582027994507</v>
+      </c>
+      <c r="F96">
+        <v>0.79</v>
+      </c>
+      <c r="G96">
+        <v>10.68941602029745</v>
+      </c>
+      <c r="H96">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97">
-        <v>516</v>
+        <v>1103</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>4.376102365890469</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.84</v>
+      </c>
+      <c r="E97">
+        <v>4.376727272369248</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98">
-        <v>19</v>
+        <v>374</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>4.354995566329106</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.84</v>
+      </c>
+      <c r="E98">
+        <v>4.428268047567341</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99">
-        <v>411</v>
+        <v>1337</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="C99">
-        <v>4.308555897117612</v>
+        <v>3.054668773668004</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100">
-        <v>1365</v>
+        <v>29</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>4.271479199903851</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.84</v>
+      </c>
+      <c r="E100">
+        <v>4.472280423862319</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101">
-        <v>760</v>
+        <v>790</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="C101">
-        <v>4.230901877110963</v>
+        <v>3.053197666515187</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102">
-        <v>727</v>
-      </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-      <c r="C102">
-        <v>4.189189243852901</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103">
-        <v>633</v>
-      </c>
-      <c r="B103">
-        <v>0</v>
-      </c>
-      <c r="C103">
-        <v>4.000732641605872</v>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104">
-        <v>197</v>
-      </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-      <c r="C104">
-        <v>3.915590222202741</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105">
-        <v>352</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-      <c r="C105">
-        <v>3.905889925873699</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106">
-        <v>1410</v>
-      </c>
-      <c r="B106">
-        <v>0</v>
-      </c>
-      <c r="C106">
-        <v>3.885337029718573</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107">
-        <v>766</v>
-      </c>
-      <c r="B107">
-        <v>3.286586172949567</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108">
-        <v>1008</v>
-      </c>
-      <c r="B108">
-        <v>3.26835245789648</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109">
-        <v>1093</v>
-      </c>
-      <c r="B109">
-        <v>3.266397185914605</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110">
-        <v>1007</v>
-      </c>
-      <c r="B110">
-        <v>3.113846709731122</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111">
-        <v>1440</v>
-      </c>
-      <c r="B111">
-        <v>3.051301154367046</v>
-      </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112">
-        <v>1229</v>
-      </c>
-      <c r="B112">
-        <v>3.050666412717226</v>
-      </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113">
-        <v>64</v>
-      </c>
-      <c r="B113">
-        <v>3.046696019157205</v>
-      </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114">
-        <v>1480</v>
-      </c>
-      <c r="B114">
-        <v>3.043509416825029</v>
-      </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115">
-        <v>154</v>
-      </c>
-      <c r="B115">
-        <v>3.043337323986364</v>
-      </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116">
-        <v>1435</v>
-      </c>
-      <c r="B116">
-        <v>3.040369984955452</v>
-      </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117">
-        <v>1073</v>
-      </c>
-      <c r="B117">
-        <v>2.993176699425759</v>
-      </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118">
-        <v>1226</v>
-      </c>
-      <c r="B118">
-        <v>2.798989182889781</v>
-      </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-      <c r="D118">
-        <v>0</v>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
